--- a/www/IndicatorsPerCountry/UnitedKingdom_UrbanizationRatio_TerritorialRef_1946_2012_CCode_826.xlsx
+++ b/www/IndicatorsPerCountry/UnitedKingdom_UrbanizationRatio_TerritorialRef_1946_2012_CCode_826.xlsx
@@ -96,13 +96,13 @@
     <t>Fink-Jensen, Jonathan (2015). Urbanization Ratio. http://hdl.handle.net/10622/LZ0Y36, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.bib</t>
   </si>
 </sst>
 </file>
